--- a/二级国考指标填报表.xlsx
+++ b/二级国考指标填报表.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">编制单位：建水县人民医院</t>
   </si>
   <si>
-    <t xml:space="preserve">指标名称</t>
+    <t xml:space="preserve">项目</t>
   </si>
   <si>
     <t xml:space="preserve">单位</t>
@@ -1650,8 +1650,8 @@
   </sheetPr>
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H117" activeCellId="0" sqref="H117"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/二级国考指标填报表.xlsx
+++ b/二级国考指标填报表.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\qc\hqcoffee\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2963CFD-6992-42DA-BFCB-43CCCB778C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="统计指标" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="医院" sheetId="1" r:id="rId1"/>
+    <sheet name="心内科" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,1490 +28,1476 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="480">
   <si>
-    <t xml:space="preserve">2020年度二级公立医院绩效考核指标数据填报表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编制单位：建水县人民医院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">项目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">行次</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020年</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019年</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018年</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017年</t>
-  </si>
-  <si>
-    <t xml:space="preserve">说明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">栏次</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.出院患者手术占比▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.出院患者手术人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11328.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9711.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9415.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.同期出院患者人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39113.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36235.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35580.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.出院患者微创手术占比▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.出院患者微创手术人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1719.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1364.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1092.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.同期出院患者手术人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11328.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9711.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9415.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.出院患者三级手术占比▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.出院患者三级手术人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2715.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2798.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2617.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.同期出院患者手术人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. 手术患者并发症发生率▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.手术患者并发症发生人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.同期出院患者手术人数（择期）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9477.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7862.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8231.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.低风险组病例死亡率▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.低风险组死亡例数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.低风险组病例数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. 抗菌药物使用强度（DDDs）▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1.住院患者抗菌药物消耗量（累计DDD数）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116718.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101525.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107368.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2.同期收治患者人天数（出院者占用总床日数）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">床日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">291550.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">274848.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">280989.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. 基本药物采购金额占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1.医院采购基本药物金额数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">元</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56975334.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48251773.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47218579.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2.医院同期采购药物金额总数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100329104.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86044157.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85851963.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. 国家组织药品集中采购中标药品金额占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1.中标药品采购金额数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2.同期采购同种药品金额总数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. 重点监控药品收入占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1.重点监控药品收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3806388.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4151748.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5787926.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2.同期药品总收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104641771.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88331990.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90387521.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10. 重点监控高值医用耗材收入占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1.重点监控高值医用耗材收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37904879.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28376302.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23430639.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2.同期医用耗材总收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64930767.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46959217.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41161171.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11. 电子病历应用功能水平分级▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">级</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12. 省级室间质量评价临床检验项目参加率与合格率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1.室间质评项目参加率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1.1.参加本省临床检验中心组织的室间质评的检验项目数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">项</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1.2.同期实验室已开展且同时本省临床检验中心已组织的室间质评检验项目总数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2.室间质评项目合格率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2.1.参加本省临床检验中心组织的室间质评成绩合格的检验项目数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">193.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2.2.同期实验室参加本省临床检验中心组织的室间质评检验项目总数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13. 平均住院日▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1.出院患者占用总床日数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">291653.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">274858.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">280989.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2.同期出院患者人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39113.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36235.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35580.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14. 医疗盈余率▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1.医疗盈余</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24958214.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20857257.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17073830.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2.同期医疗活动收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">452311145.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">388387210.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">361891380.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15. 资产负债率▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1.负债合计</t>
-  </si>
-  <si>
-    <t xml:space="preserve">368931650.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183806294.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174220562.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2.同期资产合计</t>
-  </si>
-  <si>
-    <t xml:space="preserve">675776180.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">463633879.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">434914048.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16. 人员经费占比▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1.人员经费</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161045971.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145497252.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129025400.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2.同期医疗活动费用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">427352931.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">367529953.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">344817550.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17. 万元收入能耗占比▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吨标煤/万元</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.012926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.014683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1.总能耗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吨标煤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">584.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">571.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">538.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2.同期总收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">452311145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">389219360.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">362291380.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2.1.财政拨款收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7078214.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2.2.事业收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">421547859.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2.3.上级补助收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2.4.附属单位上缴收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2.5.经营收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2.6.非同级财政拨款收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2.7.投资收益</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2.8.捐赠收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2.9.利息收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">794426.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2.10.租金收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3600602.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2.11.其他收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19190044.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18. 医疗收入中来自医保基金的比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1.门急诊收入中来自医保基金比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1.1.门急诊收入中来自医保基金的收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38647989.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31376746.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19773200.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1.2.门急诊收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155032746.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128933226.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117336347.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2.住院收入中来自医保基金的比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2.1.住院收入中来自医保基金的收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160475721.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130390607.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132662709.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2.2.住院收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">266125043.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224416346.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215091482.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3.医保基金回款率（延伸）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3.1.从医保基金收到的款项</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182758665.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153802215.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150375112.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3.2.医疗收入中来自医保基金的收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">199123710.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161767354.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152435910.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19. 医疗服务收入（不含药品、耗材 、检查检验收入）占医疗收入比例▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1.医疗服务收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132594702.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114596758.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98088298.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1.1.药品收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104641771.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1.2.卫生材料收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41161171.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1.3.检查收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51438651.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44868309.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49026021.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1.4.化验收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67551897.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58593297.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53764817.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2.同期医疗收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">421157789.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">353349572.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">332427830.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20. 医疗收入增幅▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1.门诊收入增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1.1.门诊收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155032746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128933226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117336347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2.住院收入增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2.1.住院收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">266125043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224416346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215091482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3.剔除有关项后的医疗收入增幅（延伸）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3.1.剔除有关项后的医疗收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">420804051.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">350360227.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">329479560.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21. 次均费用增幅▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1.门诊次均医药费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1.1.门诊患者次均医药费用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">207.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">193.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1.1.1.门急诊收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1.1.2.门急诊人次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人次</t>
-  </si>
-  <si>
-    <t xml:space="preserve">748196.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">667305.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">562510.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2.住院次均医药费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2.1.住院次均医药费用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6779.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6117.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5297.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2.1.1.出院患者住院费用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2.1.2.实际占用总床日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">292450.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">278443.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">320782.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2.1.3.出院者占用总床日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">291550.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">274848.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2.1.4.出院人次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22. 次均药品费用增幅▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1.门诊患者次均药品费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1.1.门诊患者次均药品费用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1.1.1.门诊药品收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51357559.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41415545.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40203769.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1.1.1.1.其中：17种抗癌药品收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1.1.2.门诊人次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">748196.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">667305.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">562510.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2.出院患者次均药品费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2.1.出院患者次均药品费用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1357.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1278.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1235.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2.1.1.出院患者药品费用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53284212.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46916445.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50183753.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2.1.1.1.其中：17种抗癌药品收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2.1.2.实际占用总床日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">292450.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">278443.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">320782.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2.1.3.出院者占用总床日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2.1.4.出院人次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.医护比▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">比值（1:X）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/1.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/1.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/1.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1.医院注册执业（助理）医师总数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">275.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">256.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2.全院同期注册护士总数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">421.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">404.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">397.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24. 麻醉、儿科、重症、病理、中医医师占比▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1.麻醉医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1.1.医院注册的麻醉在岗医师数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2.儿科医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2.1.医院注册的儿科在岗医师数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3.重症医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3.1.医院注册的重症在岗医师数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4.病理医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4.1.医院注册的病理在岗医师数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5.中医医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5.1.医院注册的中医在岗医师数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6.全院同期医师总数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">275.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">256.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25. 人才培养经费投入占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1.人才培养经费投入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1509774.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1658820.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1579675.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1.1.院校医学教学经费投入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1.2.毕业后医学教育经费投入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1.3.继续医学教育经费投入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1509774.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1658820.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1579675.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2.医院当年总经费</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26. 专科能力建设▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1.病种例数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2.平均住院日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2.1.某病种出院患者占用总床日数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2.2.同期同病种总出院人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3.次均费用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3.1.某病种总出院费用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3.2.同期同病种总出院人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4.病死率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4.1.某病种死亡人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4.2.同期同病种总出院人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27. 患者满意度▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1.门诊患者满意度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2.住院患者满意度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28. 医务人员满意度▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*医院基本信息统计</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*编制床位数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*实际开放床位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">835.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*重症医学床位数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*感染性疾病科床位数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*编制人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">359.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">366.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">373.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*在岗职工数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">951.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">923.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">897.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*医院药师（包括药剂师和临床药师）总人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*感染性疾病科医师人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00</t>
+    <t>2020年度二级公立医院绩效考核指标数据填报表</t>
+  </si>
+  <si>
+    <t>编制单位：建水县人民医院</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>行次</t>
+  </si>
+  <si>
+    <t>2020年</t>
+  </si>
+  <si>
+    <t>2019年</t>
+  </si>
+  <si>
+    <t>2018年</t>
+  </si>
+  <si>
+    <t>2017年</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>栏次</t>
+  </si>
+  <si>
+    <t>1.出院患者手术占比▲</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>28.96</t>
+  </si>
+  <si>
+    <t>26.8</t>
+  </si>
+  <si>
+    <t>26.46</t>
+  </si>
+  <si>
+    <t>1.1.出院患者手术人数</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>11328.00</t>
+  </si>
+  <si>
+    <t>9711.00</t>
+  </si>
+  <si>
+    <t>9415.00</t>
+  </si>
+  <si>
+    <t>1.2.同期出院患者人数</t>
+  </si>
+  <si>
+    <t>39113.00</t>
+  </si>
+  <si>
+    <t>36235.00</t>
+  </si>
+  <si>
+    <t>35580.00</t>
+  </si>
+  <si>
+    <t>2.出院患者微创手术占比▲</t>
+  </si>
+  <si>
+    <t>15.17</t>
+  </si>
+  <si>
+    <t>14.05</t>
+  </si>
+  <si>
+    <t>11.6</t>
+  </si>
+  <si>
+    <t>2.1.出院患者微创手术人数</t>
+  </si>
+  <si>
+    <t>1719.00</t>
+  </si>
+  <si>
+    <t>1364.00</t>
+  </si>
+  <si>
+    <t>1092.00</t>
+  </si>
+  <si>
+    <t>2.2.同期出院患者手术人数</t>
+  </si>
+  <si>
+    <t>11328.0</t>
+  </si>
+  <si>
+    <t>9711.0</t>
+  </si>
+  <si>
+    <t>9415.0</t>
+  </si>
+  <si>
+    <t>3.出院患者三级手术占比▲</t>
+  </si>
+  <si>
+    <t>23.97</t>
+  </si>
+  <si>
+    <t>28.81</t>
+  </si>
+  <si>
+    <t>27.8</t>
+  </si>
+  <si>
+    <t>3.1.出院患者三级手术人数</t>
+  </si>
+  <si>
+    <t>2715.00</t>
+  </si>
+  <si>
+    <t>2798.00</t>
+  </si>
+  <si>
+    <t>2617.00</t>
+  </si>
+  <si>
+    <t>3.2.同期出院患者手术人数</t>
+  </si>
+  <si>
+    <t>4. 手术患者并发症发生率▲</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>4.1.手术患者并发症发生人数</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>4.2.同期出院患者手术人数（择期）</t>
+  </si>
+  <si>
+    <t>9477.00</t>
+  </si>
+  <si>
+    <t>7862.00</t>
+  </si>
+  <si>
+    <t>8231.00</t>
+  </si>
+  <si>
+    <t>5.低风险组病例死亡率▲</t>
+  </si>
+  <si>
+    <t>5.1.低风险组死亡例数</t>
+  </si>
+  <si>
+    <t>5.2.低风险组病例数</t>
+  </si>
+  <si>
+    <t>6. 抗菌药物使用强度（DDDs）▲</t>
+  </si>
+  <si>
+    <t>DDDS</t>
+  </si>
+  <si>
+    <t>40.03</t>
+  </si>
+  <si>
+    <t>36.94</t>
+  </si>
+  <si>
+    <t>38.21</t>
+  </si>
+  <si>
+    <t>6.1.住院患者抗菌药物消耗量（累计DDD数）</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>116718.10</t>
+  </si>
+  <si>
+    <t>101525.90</t>
+  </si>
+  <si>
+    <t>107368.40</t>
+  </si>
+  <si>
+    <t>6.2.同期收治患者人天数（出院者占用总床日数）</t>
+  </si>
+  <si>
+    <t>床日</t>
+  </si>
+  <si>
+    <t>291550.0</t>
+  </si>
+  <si>
+    <t>274848.0</t>
+  </si>
+  <si>
+    <t>280989.0</t>
+  </si>
+  <si>
+    <t>7. 基本药物采购金额占比</t>
+  </si>
+  <si>
+    <t>56.79</t>
+  </si>
+  <si>
+    <t>56.08</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>7.1.医院采购基本药物金额数</t>
+  </si>
+  <si>
+    <t>元</t>
+  </si>
+  <si>
+    <t>56975334.00</t>
+  </si>
+  <si>
+    <t>48251773.00</t>
+  </si>
+  <si>
+    <t>47218579.00</t>
+  </si>
+  <si>
+    <t>7.2.医院同期采购药物金额总数</t>
+  </si>
+  <si>
+    <t>100329104.00</t>
+  </si>
+  <si>
+    <t>86044157.00</t>
+  </si>
+  <si>
+    <t>85851963.00</t>
+  </si>
+  <si>
+    <t>8. 国家组织药品集中采购中标药品金额占比</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>8.1.中标药品采购金额数</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>8.2.同期采购同种药品金额总数</t>
+  </si>
+  <si>
+    <t>9. 重点监控药品收入占比</t>
+  </si>
+  <si>
+    <t>3.64</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>9.1.重点监控药品收入</t>
+  </si>
+  <si>
+    <t>3806388.00</t>
+  </si>
+  <si>
+    <t>4151748.00</t>
+  </si>
+  <si>
+    <t>5787926.00</t>
+  </si>
+  <si>
+    <t>9.2.同期药品总收入</t>
+  </si>
+  <si>
+    <t>104641771.4</t>
+  </si>
+  <si>
+    <t>88331990.15</t>
+  </si>
+  <si>
+    <t>90387521.99</t>
+  </si>
+  <si>
+    <t>10. 重点监控高值医用耗材收入占比</t>
+  </si>
+  <si>
+    <t>58.38</t>
+  </si>
+  <si>
+    <t>60.43</t>
+  </si>
+  <si>
+    <t>56.92</t>
+  </si>
+  <si>
+    <t>10.1.重点监控高值医用耗材收入</t>
+  </si>
+  <si>
+    <t>37904879.00</t>
+  </si>
+  <si>
+    <t>28376302.00</t>
+  </si>
+  <si>
+    <t>23430639.00</t>
+  </si>
+  <si>
+    <t>10.2.同期医用耗材总收入</t>
+  </si>
+  <si>
+    <t>64930767.32</t>
+  </si>
+  <si>
+    <t>46959217.66</t>
+  </si>
+  <si>
+    <t>41161171.6</t>
+  </si>
+  <si>
+    <t>11. 电子病历应用功能水平分级▲</t>
+  </si>
+  <si>
+    <t>级</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>12. 省级室间质量评价临床检验项目参加率与合格率</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>12.1.室间质评项目参加率</t>
+  </si>
+  <si>
+    <t>54.69</t>
+  </si>
+  <si>
+    <t>80.83</t>
+  </si>
+  <si>
+    <t>81.86</t>
+  </si>
+  <si>
+    <t>12.1.1.参加本省临床检验中心组织的室间质评的检验项目数</t>
+  </si>
+  <si>
+    <t>项</t>
+  </si>
+  <si>
+    <t>134.00</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>12.1.2.同期实验室已开展且同时本省临床检验中心已组织的室间质评检验项目总数</t>
+  </si>
+  <si>
+    <t>245.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>12.2.室间质评项目合格率</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>99.48</t>
+  </si>
+  <si>
+    <t>97.94</t>
+  </si>
+  <si>
+    <t>12.2.1.参加本省临床检验中心组织的室间质评成绩合格的检验项目数</t>
+  </si>
+  <si>
+    <t>193.00</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>12.2.2.同期实验室参加本省临床检验中心组织的室间质评检验项目总数</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>194.0</t>
+  </si>
+  <si>
+    <t>13. 平均住院日▲</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>7.46</t>
+  </si>
+  <si>
+    <t>7.59</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>13.1.出院患者占用总床日数</t>
+  </si>
+  <si>
+    <t>291653.00</t>
+  </si>
+  <si>
+    <t>274858.00</t>
+  </si>
+  <si>
+    <t>280989.00</t>
+  </si>
+  <si>
+    <t>13.2.同期出院患者人数</t>
+  </si>
+  <si>
+    <t>39113.0</t>
+  </si>
+  <si>
+    <t>36235.0</t>
+  </si>
+  <si>
+    <t>35580.0</t>
+  </si>
+  <si>
+    <t>14. 医疗盈余率▲</t>
+  </si>
+  <si>
+    <t>5.52</t>
+  </si>
+  <si>
+    <t>5.37</t>
+  </si>
+  <si>
+    <t>4.72</t>
+  </si>
+  <si>
+    <t>14.1.医疗盈余</t>
+  </si>
+  <si>
+    <t>24958214.00</t>
+  </si>
+  <si>
+    <t>20857257.00</t>
+  </si>
+  <si>
+    <t>17073830.00</t>
+  </si>
+  <si>
+    <t>14.2.同期医疗活动收入</t>
+  </si>
+  <si>
+    <t>452311145.00</t>
+  </si>
+  <si>
+    <t>388387210.00</t>
+  </si>
+  <si>
+    <t>361891380.00</t>
+  </si>
+  <si>
+    <t>15. 资产负债率▲</t>
+  </si>
+  <si>
+    <t>54.59</t>
+  </si>
+  <si>
+    <t>39.64</t>
+  </si>
+  <si>
+    <t>40.06</t>
+  </si>
+  <si>
+    <t>15.1.负债合计</t>
+  </si>
+  <si>
+    <t>368931650.00</t>
+  </si>
+  <si>
+    <t>183806294.00</t>
+  </si>
+  <si>
+    <t>174220562.00</t>
+  </si>
+  <si>
+    <t>15.2.同期资产合计</t>
+  </si>
+  <si>
+    <t>675776180.00</t>
+  </si>
+  <si>
+    <t>463633879.00</t>
+  </si>
+  <si>
+    <t>434914048.00</t>
+  </si>
+  <si>
+    <t>16. 人员经费占比▲</t>
+  </si>
+  <si>
+    <t>37.68</t>
+  </si>
+  <si>
+    <t>39.59</t>
+  </si>
+  <si>
+    <t>37.42</t>
+  </si>
+  <si>
+    <t>16.1.人员经费</t>
+  </si>
+  <si>
+    <t>161045971.00</t>
+  </si>
+  <si>
+    <t>145497252.00</t>
+  </si>
+  <si>
+    <t>129025400.00</t>
+  </si>
+  <si>
+    <t>16.2.同期医疗活动费用</t>
+  </si>
+  <si>
+    <t>427352931.00</t>
+  </si>
+  <si>
+    <t>367529953.00</t>
+  </si>
+  <si>
+    <t>344817550.00</t>
+  </si>
+  <si>
+    <t>17. 万元收入能耗占比▲</t>
+  </si>
+  <si>
+    <t>吨标煤/万元</t>
+  </si>
+  <si>
+    <t>0.012926</t>
+  </si>
+  <si>
+    <t>0.014683</t>
+  </si>
+  <si>
+    <t>0.01487</t>
+  </si>
+  <si>
+    <t>17.1.总能耗</t>
+  </si>
+  <si>
+    <t>吨标煤</t>
+  </si>
+  <si>
+    <t>584.64</t>
+  </si>
+  <si>
+    <t>571.50</t>
+  </si>
+  <si>
+    <t>538.74</t>
+  </si>
+  <si>
+    <t>17.2.同期总收入</t>
+  </si>
+  <si>
+    <t>452311145</t>
+  </si>
+  <si>
+    <t>389219360.00</t>
+  </si>
+  <si>
+    <t>362291380.00</t>
+  </si>
+  <si>
+    <t>17.2.1.财政拨款收入</t>
+  </si>
+  <si>
+    <t>7078214.00</t>
+  </si>
+  <si>
+    <t>17.2.2.事业收入</t>
+  </si>
+  <si>
+    <t>421547859.00</t>
+  </si>
+  <si>
+    <t>17.2.3.上级补助收入</t>
+  </si>
+  <si>
+    <t>17.2.4.附属单位上缴收入</t>
+  </si>
+  <si>
+    <t>17.2.5.经营收入</t>
+  </si>
+  <si>
+    <t>17.2.6.非同级财政拨款收入</t>
+  </si>
+  <si>
+    <t>100000.00</t>
+  </si>
+  <si>
+    <t>17.2.7.投资收益</t>
+  </si>
+  <si>
+    <t>17.2.8.捐赠收入</t>
+  </si>
+  <si>
+    <t>17.2.9.利息收入</t>
+  </si>
+  <si>
+    <t>794426.00</t>
+  </si>
+  <si>
+    <t>17.2.10.租金收入</t>
+  </si>
+  <si>
+    <t>3600602.00</t>
+  </si>
+  <si>
+    <t>17.2.11.其他收入</t>
+  </si>
+  <si>
+    <t>19190044.00</t>
+  </si>
+  <si>
+    <t>18. 医疗收入中来自医保基金的比例</t>
+  </si>
+  <si>
+    <t>18.1.门急诊收入中来自医保基金比例</t>
+  </si>
+  <si>
+    <t>24.93</t>
+  </si>
+  <si>
+    <t>24.34</t>
+  </si>
+  <si>
+    <t>16.85</t>
+  </si>
+  <si>
+    <t>18.1.1.门急诊收入中来自医保基金的收入</t>
+  </si>
+  <si>
+    <t>38647989.03</t>
+  </si>
+  <si>
+    <t>31376746.59</t>
+  </si>
+  <si>
+    <t>19773200.49</t>
+  </si>
+  <si>
+    <t>18.1.2.门急诊收入</t>
+  </si>
+  <si>
+    <t>155032746.00</t>
+  </si>
+  <si>
+    <t>128933226.00</t>
+  </si>
+  <si>
+    <t>117336347.00</t>
+  </si>
+  <si>
+    <t>18.2.住院收入中来自医保基金的比例</t>
+  </si>
+  <si>
+    <t>60.3</t>
+  </si>
+  <si>
+    <t>58.1</t>
+  </si>
+  <si>
+    <t>61.68</t>
+  </si>
+  <si>
+    <t>18.2.1.住院收入中来自医保基金的收入</t>
+  </si>
+  <si>
+    <t>160475721.20</t>
+  </si>
+  <si>
+    <t>130390607.50</t>
+  </si>
+  <si>
+    <t>132662709.60</t>
+  </si>
+  <si>
+    <t>18.2.2.住院收入</t>
+  </si>
+  <si>
+    <t>266125043.00</t>
+  </si>
+  <si>
+    <t>224416346.00</t>
+  </si>
+  <si>
+    <t>215091482.00</t>
+  </si>
+  <si>
+    <t>18.3.医保基金回款率（延伸）</t>
+  </si>
+  <si>
+    <t>91.78</t>
+  </si>
+  <si>
+    <t>95.08</t>
+  </si>
+  <si>
+    <t>98.65</t>
+  </si>
+  <si>
+    <t>18.3.1.从医保基金收到的款项</t>
+  </si>
+  <si>
+    <t>182758665.00</t>
+  </si>
+  <si>
+    <t>153802215.00</t>
+  </si>
+  <si>
+    <t>150375112.00</t>
+  </si>
+  <si>
+    <t>18.3.2.医疗收入中来自医保基金的收入</t>
+  </si>
+  <si>
+    <t>199123710.20</t>
+  </si>
+  <si>
+    <t>161767354.10</t>
+  </si>
+  <si>
+    <t>152435910.00</t>
+  </si>
+  <si>
+    <t>19. 医疗服务收入（不含药品、耗材 、检查检验收入）占医疗收入比例▲</t>
+  </si>
+  <si>
+    <t>31.48</t>
+  </si>
+  <si>
+    <t>32.43</t>
+  </si>
+  <si>
+    <t>29.51</t>
+  </si>
+  <si>
+    <t>19.1.医疗服务收入</t>
+  </si>
+  <si>
+    <t>132594702.28</t>
+  </si>
+  <si>
+    <t>114596758.19</t>
+  </si>
+  <si>
+    <t>98088298.41</t>
+  </si>
+  <si>
+    <t>19.1.1.药品收入</t>
+  </si>
+  <si>
+    <t>104641771.40</t>
+  </si>
+  <si>
+    <t>19.1.2.卫生材料收入</t>
+  </si>
+  <si>
+    <t>41161171.60</t>
+  </si>
+  <si>
+    <t>19.1.3.检查收入</t>
+  </si>
+  <si>
+    <t>51438651.00</t>
+  </si>
+  <si>
+    <t>44868309.00</t>
+  </si>
+  <si>
+    <t>49026021.00</t>
+  </si>
+  <si>
+    <t>19.1.4.化验收入</t>
+  </si>
+  <si>
+    <t>67551897.00</t>
+  </si>
+  <si>
+    <t>58593297.00</t>
+  </si>
+  <si>
+    <t>53764817.00</t>
+  </si>
+  <si>
+    <t>19.2.同期医疗收入</t>
+  </si>
+  <si>
+    <t>421157789.00</t>
+  </si>
+  <si>
+    <t>353349572.00</t>
+  </si>
+  <si>
+    <t>332427830.00</t>
+  </si>
+  <si>
+    <t>20. 医疗收入增幅▲</t>
+  </si>
+  <si>
+    <t>20.1.门诊收入增幅</t>
+  </si>
+  <si>
+    <t>20.24</t>
+  </si>
+  <si>
+    <t>9.88</t>
+  </si>
+  <si>
+    <t>13.74</t>
+  </si>
+  <si>
+    <t>20.1.1.门诊收入</t>
+  </si>
+  <si>
+    <t>155032746</t>
+  </si>
+  <si>
+    <t>128933226</t>
+  </si>
+  <si>
+    <t>117336347</t>
+  </si>
+  <si>
+    <t>20.2.住院收入增幅</t>
+  </si>
+  <si>
+    <t>18.59</t>
+  </si>
+  <si>
+    <t>4.34</t>
+  </si>
+  <si>
+    <t>6.06</t>
+  </si>
+  <si>
+    <t>20.2.1.住院收入</t>
+  </si>
+  <si>
+    <t>266125043</t>
+  </si>
+  <si>
+    <t>224416346</t>
+  </si>
+  <si>
+    <t>215091482</t>
+  </si>
+  <si>
+    <t>20.3.剔除有关项后的医疗收入增幅（延伸）</t>
+  </si>
+  <si>
+    <t>20.11</t>
+  </si>
+  <si>
+    <t>6.34</t>
+  </si>
+  <si>
+    <t>8.44</t>
+  </si>
+  <si>
+    <t>20.3.1.剔除有关项后的医疗收入</t>
+  </si>
+  <si>
+    <t>420804051.00</t>
+  </si>
+  <si>
+    <t>350360227.00</t>
+  </si>
+  <si>
+    <t>329479560.00</t>
+  </si>
+  <si>
+    <t>21. 次均费用增幅▲</t>
+  </si>
+  <si>
+    <t>21.1.门诊次均医药费用增幅</t>
+  </si>
+  <si>
+    <t>7.25</t>
+  </si>
+  <si>
+    <t>-7.37</t>
+  </si>
+  <si>
+    <t>5.08</t>
+  </si>
+  <si>
+    <t>21.1.1.门诊患者次均医药费用</t>
+  </si>
+  <si>
+    <t>207.21</t>
+  </si>
+  <si>
+    <t>193.21</t>
+  </si>
+  <si>
+    <t>208.59</t>
+  </si>
+  <si>
+    <t>21.1.1.1.门急诊收入</t>
+  </si>
+  <si>
+    <t>21.1.1.2.门急诊人次数</t>
+  </si>
+  <si>
+    <t>人次</t>
+  </si>
+  <si>
+    <t>748196.00</t>
+  </si>
+  <si>
+    <t>667305.00</t>
+  </si>
+  <si>
+    <t>562510.00</t>
+  </si>
+  <si>
+    <t>21.2.住院次均医药费用增幅</t>
+  </si>
+  <si>
+    <t>10.82</t>
+  </si>
+  <si>
+    <t>15.48</t>
+  </si>
+  <si>
+    <t>4.04</t>
+  </si>
+  <si>
+    <t>21.2.1.住院次均医药费用</t>
+  </si>
+  <si>
+    <t>6779.35</t>
+  </si>
+  <si>
+    <t>6117.31</t>
+  </si>
+  <si>
+    <t>5297.11</t>
+  </si>
+  <si>
+    <t>21.2.1.1.出院患者住院费用</t>
+  </si>
+  <si>
+    <t>21.2.1.2.实际占用总床日</t>
+  </si>
+  <si>
+    <t>292450.00</t>
+  </si>
+  <si>
+    <t>278443.00</t>
+  </si>
+  <si>
+    <t>320782.00</t>
+  </si>
+  <si>
+    <t>21.2.1.3.出院者占用总床日</t>
+  </si>
+  <si>
+    <t>291550.00</t>
+  </si>
+  <si>
+    <t>274848.00</t>
+  </si>
+  <si>
+    <t>21.2.1.4.出院人次数</t>
+  </si>
+  <si>
+    <t>22. 次均药品费用增幅▲</t>
+  </si>
+  <si>
+    <t>22.1.门诊患者次均药品费用增幅</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>-13.17</t>
+  </si>
+  <si>
+    <t>4.48</t>
+  </si>
+  <si>
+    <t>22.1.1.门诊患者次均药品费用</t>
+  </si>
+  <si>
+    <t>68.64</t>
+  </si>
+  <si>
+    <t>62.06</t>
+  </si>
+  <si>
+    <t>71.47</t>
+  </si>
+  <si>
+    <t>22.1.1.1.门诊药品收入</t>
+  </si>
+  <si>
+    <t>51357559.00</t>
+  </si>
+  <si>
+    <t>41415545.00</t>
+  </si>
+  <si>
+    <t>40203769.00</t>
+  </si>
+  <si>
+    <t>22.1.1.1.1.其中：17种抗癌药品收入</t>
+  </si>
+  <si>
+    <t>22.1.1.2.门诊人次数</t>
+  </si>
+  <si>
+    <t>748196.0</t>
+  </si>
+  <si>
+    <t>667305.0</t>
+  </si>
+  <si>
+    <t>562510.0</t>
+  </si>
+  <si>
+    <t>22.2.出院患者次均药品费用增幅</t>
+  </si>
+  <si>
+    <t>6.14</t>
+  </si>
+  <si>
+    <t>3.48</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>22.2.1.出院患者次均药品费用</t>
+  </si>
+  <si>
+    <t>1357.39</t>
+  </si>
+  <si>
+    <t>1278.92</t>
+  </si>
+  <si>
+    <t>1235.88</t>
+  </si>
+  <si>
+    <t>22.2.1.1.出院患者药品费用</t>
+  </si>
+  <si>
+    <t>53284212.00</t>
+  </si>
+  <si>
+    <t>46916445.00</t>
+  </si>
+  <si>
+    <t>50183753.00</t>
+  </si>
+  <si>
+    <t>22.2.1.1.1.其中：17种抗癌药品收入</t>
+  </si>
+  <si>
+    <t>22.2.1.2.实际占用总床日</t>
+  </si>
+  <si>
+    <t>292450.0</t>
+  </si>
+  <si>
+    <t>278443.0</t>
+  </si>
+  <si>
+    <t>320782.0</t>
+  </si>
+  <si>
+    <t>22.2.1.3.出院者占用总床日</t>
+  </si>
+  <si>
+    <t>22.2.1.4.出院人次数</t>
+  </si>
+  <si>
+    <t>23.医护比▲</t>
+  </si>
+  <si>
+    <t>比值（1:X）</t>
+  </si>
+  <si>
+    <t>1/1.55</t>
+  </si>
+  <si>
+    <t>1/1.53</t>
+  </si>
+  <si>
+    <t>1/1.52</t>
+  </si>
+  <si>
+    <t>23.1.医院注册执业（助理）医师总数</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>265.00</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>23.2.全院同期注册护士总数</t>
+  </si>
+  <si>
+    <t>421.00</t>
+  </si>
+  <si>
+    <t>404.00</t>
+  </si>
+  <si>
+    <t>397.00</t>
+  </si>
+  <si>
+    <t>24. 麻醉、儿科、重症、病理、中医医师占比▲</t>
+  </si>
+  <si>
+    <t>24.1.麻醉医师占比</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>3.91</t>
+  </si>
+  <si>
+    <t>24.1.1.医院注册的麻醉在岗医师数</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>24.2.儿科医师占比</t>
+  </si>
+  <si>
+    <t>9.09</t>
+  </si>
+  <si>
+    <t>9.06</t>
+  </si>
+  <si>
+    <t>9.38</t>
+  </si>
+  <si>
+    <t>24.2.1.医院注册的儿科在岗医师数</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.3.重症医师占比</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>24.3.1.医院注册的重症在岗医师数</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>24.4.病理医师占比</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>24.4.1.医院注册的病理在岗医师数</t>
+  </si>
+  <si>
+    <t>24.5.中医医师占比</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>24.5.1.医院注册的中医在岗医师数</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>24.6.全院同期医师总数</t>
+  </si>
+  <si>
+    <t>275.0</t>
+  </si>
+  <si>
+    <t>265.0</t>
+  </si>
+  <si>
+    <t>256.0</t>
+  </si>
+  <si>
+    <t>25. 人才培养经费投入占比</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>25.1.人才培养经费投入</t>
+  </si>
+  <si>
+    <t>1509774.0</t>
+  </si>
+  <si>
+    <t>1658820.0</t>
+  </si>
+  <si>
+    <t>1579675.0</t>
+  </si>
+  <si>
+    <t>25.1.1.院校医学教学经费投入</t>
+  </si>
+  <si>
+    <t>25.1.2.毕业后医学教育经费投入</t>
+  </si>
+  <si>
+    <t>25.1.3.继续医学教育经费投入</t>
+  </si>
+  <si>
+    <t>1509774.00</t>
+  </si>
+  <si>
+    <t>1658820.00</t>
+  </si>
+  <si>
+    <t>1579675.00</t>
+  </si>
+  <si>
+    <t>25.2.医院当年总经费</t>
+  </si>
+  <si>
+    <t>26. 专科能力建设▲</t>
+  </si>
+  <si>
+    <t>26.1.病种例数</t>
+  </si>
+  <si>
+    <t>26.2.平均住院日</t>
+  </si>
+  <si>
+    <t>26.2.1.某病种出院患者占用总床日数</t>
+  </si>
+  <si>
+    <t>26.2.2.同期同病种总出院人数</t>
+  </si>
+  <si>
+    <t>26.3.次均费用</t>
+  </si>
+  <si>
+    <t>26.3.1.某病种总出院费用</t>
+  </si>
+  <si>
+    <t>26.3.2.同期同病种总出院人数</t>
+  </si>
+  <si>
+    <t>26.4.病死率</t>
+  </si>
+  <si>
+    <t>26.4.1.某病种死亡人数</t>
+  </si>
+  <si>
+    <t>26.4.2.同期同病种总出院人数</t>
+  </si>
+  <si>
+    <t>27. 患者满意度▲</t>
+  </si>
+  <si>
+    <t>27.1.门诊患者满意度</t>
+  </si>
+  <si>
+    <t>27.2.住院患者满意度</t>
+  </si>
+  <si>
+    <t>28. 医务人员满意度▲</t>
+  </si>
+  <si>
+    <t>*医院基本信息统计</t>
+  </si>
+  <si>
+    <t>*编制床位数</t>
+  </si>
+  <si>
+    <t>张</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>*实际开放床位</t>
+  </si>
+  <si>
+    <t>835.00</t>
+  </si>
+  <si>
+    <t>*重症医学床位数</t>
+  </si>
+  <si>
+    <t>*感染性疾病科床位数</t>
+  </si>
+  <si>
+    <t>*编制人数</t>
+  </si>
+  <si>
+    <t>359.00</t>
+  </si>
+  <si>
+    <t>366.00</t>
+  </si>
+  <si>
+    <t>373.00</t>
+  </si>
+  <si>
+    <t>*在岗职工数</t>
+  </si>
+  <si>
+    <t>951.00</t>
+  </si>
+  <si>
+    <t>923.00</t>
+  </si>
+  <si>
+    <t>897.00</t>
+  </si>
+  <si>
+    <t>*医院药师（包括药剂师和临床药师）总人数</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>*感染性疾病科医师人数</t>
+  </si>
+  <si>
+    <t>8.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0.00\ ;\(0.00\)"/>
-    <numFmt numFmtId="167" formatCode="0.00000\ ;\(0.00000\)"/>
-    <numFmt numFmtId="168" formatCode="0\ ;\(0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.00\ ;\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00000\ ;\(0.00000\)"/>
+    <numFmt numFmtId="178" formatCode="0\ ;\(0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="SimSun"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="SimSun"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1523,115 +1515,83 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1640,33 +1600,334 @@
       </font>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="9"/>
+    <col min="1" max="1" width="40.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="12.83203125" style="3" customWidth="1"/>
+    <col min="9" max="1024" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="36.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1678,19 +1939,19 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" ht="13" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="13" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1716,43 +1977,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="13" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="5">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="5">
         <v>4</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="14.15" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="8">
         <v>32.47</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -1766,17 +2027,17 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="14.15" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="8">
         <v>12158</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -1790,17 +2051,17 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="14.15" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="8">
         <v>37445</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -1814,17 +2075,17 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="14.15" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="8">
         <v>21.59</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -1838,17 +2099,17 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="14.15" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>5</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="8">
         <v>2625</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -1862,17 +2123,17 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="14.15" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="5">
         <v>6</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="8">
         <v>12158</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -1886,17 +2147,17 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="14.15" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="5">
         <v>7</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="8">
         <v>29.6</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -1910,17 +2171,17 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="14.15" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="5">
         <v>8</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="8">
         <v>3599</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -1934,17 +2195,17 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="14.15" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="5">
         <v>9</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="8">
         <v>12158</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -1958,17 +2219,17 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="14.15" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>10</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="8">
         <v>0.15</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -1982,17 +2243,17 @@
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="14.15" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="5">
         <v>11</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="8">
         <v>14</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -2006,17 +2267,17 @@
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="14.15" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="5">
         <v>12</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="8">
         <v>9454</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -2030,17 +2291,17 @@
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" ht="14.15" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="5">
         <v>13</v>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="8">
         <v>2.94</v>
       </c>
       <c r="E17" s="11"/>
@@ -2048,17 +2309,17 @@
       <c r="G17" s="11"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" ht="14.15" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="5">
         <v>14</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="8">
         <v>1</v>
       </c>
       <c r="E18" s="11"/>
@@ -2066,17 +2327,17 @@
       <c r="G18" s="11"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" ht="14.15" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="5">
         <v>15</v>
       </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="8">
         <v>34</v>
       </c>
       <c r="E19" s="11"/>
@@ -2084,17 +2345,17 @@
       <c r="G19" s="11"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" ht="14.15" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="5">
         <v>16</v>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="8">
         <v>33</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -2108,17 +2369,17 @@
       </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="14.15" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="5">
         <v>17</v>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="8">
         <v>96189</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -2132,17 +2393,17 @@
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" ht="14.15" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="5">
         <v>18</v>
       </c>
-      <c r="D22" s="8" t="n">
+      <c r="D22" s="8">
         <v>272818</v>
       </c>
       <c r="E22" s="9" t="s">
@@ -2156,17 +2417,17 @@
       </c>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" ht="14.15" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="5">
         <v>19</v>
       </c>
-      <c r="D23" s="8" t="n">
+      <c r="D23" s="8">
         <v>54.57</v>
       </c>
       <c r="E23" s="9" t="s">
@@ -2180,17 +2441,17 @@
       </c>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" ht="14.15" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="5">
         <v>20</v>
       </c>
-      <c r="D24" s="8" t="n">
+      <c r="D24" s="8">
         <v>57095585</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -2204,17 +2465,17 @@
       </c>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" ht="14.15" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="5">
         <v>21</v>
       </c>
-      <c r="D25" s="8" t="n">
+      <c r="D25" s="8">
         <v>104622392</v>
       </c>
       <c r="E25" s="9" t="s">
@@ -2228,17 +2489,17 @@
       </c>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" ht="14.15" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" s="5">
         <v>22</v>
       </c>
-      <c r="D26" s="8" t="n">
+      <c r="D26" s="8">
         <v>1.43</v>
       </c>
       <c r="E26" s="9" t="s">
@@ -2252,17 +2513,17 @@
       </c>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" ht="14.15" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="5">
         <v>23</v>
       </c>
-      <c r="D27" s="8" t="n">
+      <c r="D27" s="8">
         <v>1499745.69</v>
       </c>
       <c r="E27" s="9" t="s">
@@ -2276,17 +2537,17 @@
       </c>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" ht="14.15" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" s="5">
         <v>24</v>
       </c>
-      <c r="D28" s="8" t="n">
+      <c r="D28" s="8">
         <v>739375.8</v>
       </c>
       <c r="E28" s="9" t="s">
@@ -2300,17 +2561,17 @@
       </c>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" ht="14.15" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="5">
         <v>25</v>
       </c>
-      <c r="D29" s="8" t="n">
+      <c r="D29" s="8">
         <v>3.31</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -2324,17 +2585,17 @@
       </c>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" ht="14.15" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" s="5">
         <v>26</v>
       </c>
-      <c r="D30" s="8" t="n">
+      <c r="D30" s="8">
         <v>3550829</v>
       </c>
       <c r="E30" s="9" t="s">
@@ -2348,17 +2609,17 @@
       </c>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" ht="14.15" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" s="5">
         <v>27</v>
       </c>
-      <c r="D31" s="8" t="n">
+      <c r="D31" s="8">
         <v>107038511</v>
       </c>
       <c r="E31" s="9" t="s">
@@ -2372,18 +2633,18 @@
       </c>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" ht="14.15" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="5" t="n">
+      <c r="C32" s="5">
         <v>28</v>
       </c>
-      <c r="D32" s="8" t="n">
-        <v>59.4991236512163</v>
+      <c r="D32" s="8">
+        <v>59.499123651216301</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>107</v>
@@ -2396,17 +2657,17 @@
       </c>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" ht="14.15" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="5">
         <v>29</v>
       </c>
-      <c r="D33" s="8" t="n">
+      <c r="D33" s="8">
         <v>41811094</v>
       </c>
       <c r="E33" s="9" t="s">
@@ -2420,18 +2681,18 @@
       </c>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" ht="14.15" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C34" s="5">
         <v>30</v>
       </c>
-      <c r="D34" s="8" t="n">
-        <v>70271781.22</v>
+      <c r="D34" s="8">
+        <v>70271781.219999999</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>115</v>
@@ -2444,17 +2705,17 @@
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" ht="14.15" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" s="5">
         <v>31</v>
       </c>
-      <c r="D35" s="8" t="n">
+      <c r="D35" s="8">
         <v>3</v>
       </c>
       <c r="E35" s="9" t="s">
@@ -2468,14 +2729,14 @@
       </c>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" ht="14.15" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="C36" s="5">
         <v>32</v>
       </c>
       <c r="D36" s="8"/>
@@ -2484,17 +2745,17 @@
       <c r="G36" s="11"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" ht="14.15" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="5" t="n">
+      <c r="C37" s="5">
         <v>33</v>
       </c>
-      <c r="D37" s="8" t="n">
+      <c r="D37" s="8">
         <v>54</v>
       </c>
       <c r="E37" s="9" t="s">
@@ -2508,17 +2769,17 @@
       </c>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" ht="14.15" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="5" t="n">
+      <c r="C38" s="5">
         <v>34</v>
       </c>
-      <c r="D38" s="8" t="n">
+      <c r="D38" s="8">
         <v>134</v>
       </c>
       <c r="E38" s="9" t="s">
@@ -2532,17 +2793,17 @@
       </c>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" ht="14.15" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C39" s="5" t="n">
+      <c r="C39" s="5">
         <v>35</v>
       </c>
-      <c r="D39" s="8" t="n">
+      <c r="D39" s="8">
         <v>226</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -2556,17 +2817,17 @@
       </c>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" ht="14.15" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="5" t="n">
+      <c r="C40" s="5">
         <v>36</v>
       </c>
-      <c r="D40" s="8" t="n">
+      <c r="D40" s="8">
         <v>98.5</v>
       </c>
       <c r="E40" s="9" t="s">
@@ -2580,17 +2841,17 @@
       </c>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" ht="14.15" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="5" t="n">
+      <c r="C41" s="5">
         <v>37</v>
       </c>
-      <c r="D41" s="8" t="n">
+      <c r="D41" s="8">
         <v>132</v>
       </c>
       <c r="E41" s="9" t="s">
@@ -2604,17 +2865,17 @@
       </c>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" ht="14.15" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="5" t="n">
+      <c r="C42" s="5">
         <v>38</v>
       </c>
-      <c r="D42" s="8" t="n">
+      <c r="D42" s="8">
         <v>134</v>
       </c>
       <c r="E42" s="9" t="s">
@@ -2628,17 +2889,17 @@
       </c>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" ht="14.15" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C43" s="5" t="n">
+      <c r="C43" s="5">
         <v>39</v>
       </c>
-      <c r="D43" s="8" t="n">
+      <c r="D43" s="8">
         <v>7.29</v>
       </c>
       <c r="E43" s="9" t="s">
@@ -2652,17 +2913,17 @@
       </c>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:8" ht="14.15" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>151</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="5" t="n">
+      <c r="C44" s="5">
         <v>40</v>
       </c>
-      <c r="D44" s="8" t="n">
+      <c r="D44" s="8">
         <v>272818</v>
       </c>
       <c r="E44" s="9" t="s">
@@ -2676,17 +2937,17 @@
       </c>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:8" ht="14.15" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>155</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="5" t="n">
+      <c r="C45" s="5">
         <v>41</v>
       </c>
-      <c r="D45" s="8" t="n">
+      <c r="D45" s="8">
         <v>37445</v>
       </c>
       <c r="E45" s="9" t="s">
@@ -2700,17 +2961,17 @@
       </c>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:8" ht="14.15" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>159</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="5" t="n">
+      <c r="C46" s="5">
         <v>42</v>
       </c>
-      <c r="D46" s="8" t="n">
+      <c r="D46" s="8">
         <v>6</v>
       </c>
       <c r="E46" s="9" t="s">
@@ -2724,18 +2985,18 @@
       </c>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:8" ht="14.15" customHeight="1">
       <c r="A47" s="6" t="s">
         <v>163</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="5" t="n">
+      <c r="C47" s="5">
         <v>43</v>
       </c>
-      <c r="D47" s="8" t="n">
-        <v>28677266.72</v>
+      <c r="D47" s="8">
+        <v>28677266.719999999</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>164</v>
@@ -2748,18 +3009,18 @@
       </c>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:8" ht="14.15" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="5" t="n">
+      <c r="C48" s="5">
         <v>44</v>
       </c>
-      <c r="D48" s="8" t="n">
-        <v>477875618.14</v>
+      <c r="D48" s="8">
+        <v>477875618.13999999</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>168</v>
@@ -2772,17 +3033,17 @@
       </c>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:8" ht="14.15" customHeight="1">
       <c r="A49" s="6" t="s">
         <v>171</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="5" t="n">
+      <c r="C49" s="5">
         <v>45</v>
       </c>
-      <c r="D49" s="8" t="n">
+      <c r="D49" s="8">
         <v>45.22</v>
       </c>
       <c r="E49" s="9" t="s">
@@ -2796,17 +3057,17 @@
       </c>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:8" ht="14.15" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>175</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="5" t="n">
+      <c r="C50" s="5">
         <v>46</v>
       </c>
-      <c r="D50" s="8" t="n">
+      <c r="D50" s="8">
         <v>368009258</v>
       </c>
       <c r="E50" s="9" t="s">
@@ -2820,18 +3081,18 @@
       </c>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:8" ht="14.15" customHeight="1">
       <c r="A51" s="6" t="s">
         <v>179</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="5" t="n">
+      <c r="C51" s="5">
         <v>47</v>
       </c>
-      <c r="D51" s="8" t="n">
-        <v>813746209.8</v>
+      <c r="D51" s="8">
+        <v>813746209.79999995</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>180</v>
@@ -2844,18 +3105,18 @@
       </c>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:8" ht="14.15" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>183</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="5" t="n">
+      <c r="C52" s="5">
         <v>48</v>
       </c>
-      <c r="D52" s="8" t="n">
-        <v>38.37</v>
+      <c r="D52" s="8">
+        <v>38.369999999999997</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>184</v>
@@ -2868,17 +3129,17 @@
       </c>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:8" ht="14.15" customHeight="1">
       <c r="A53" s="6" t="s">
         <v>187</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="5" t="n">
+      <c r="C53" s="5">
         <v>49</v>
       </c>
-      <c r="D53" s="8" t="n">
+      <c r="D53" s="8">
         <v>172357520.34</v>
       </c>
       <c r="E53" s="9" t="s">
@@ -2892,18 +3153,18 @@
       </c>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:8" ht="14.15" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>191</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="5" t="n">
+      <c r="C54" s="5">
         <v>50</v>
       </c>
-      <c r="D54" s="8" t="n">
-        <v>449198351.42</v>
+      <c r="D54" s="8">
+        <v>449198351.42000002</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>192</v>
@@ -2916,18 +3177,18 @@
       </c>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:8" ht="14.15" customHeight="1">
       <c r="A55" s="6" t="s">
         <v>195</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C55" s="5" t="n">
+      <c r="C55" s="5">
         <v>51</v>
       </c>
-      <c r="D55" s="12" t="n">
-        <v>0.0103</v>
+      <c r="D55" s="12">
+        <v>1.03E-2</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>197</v>
@@ -2940,17 +3201,17 @@
       </c>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:8" ht="14.15" customHeight="1">
       <c r="A56" s="6" t="s">
         <v>200</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C56" s="5" t="n">
+      <c r="C56" s="5">
         <v>52</v>
       </c>
-      <c r="D56" s="8" t="n">
+      <c r="D56" s="8">
         <v>611.76</v>
       </c>
       <c r="E56" s="9" t="s">
@@ -2964,18 +3225,18 @@
       </c>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:8" ht="14.15" customHeight="1">
       <c r="A57" s="6" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="5" t="n">
+      <c r="C57" s="5">
         <v>53</v>
       </c>
-      <c r="D57" s="8" t="n">
-        <v>591332450.14</v>
+      <c r="D57" s="8">
+        <v>591332450.13999999</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>206</v>
@@ -2988,17 +3249,17 @@
       </c>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:8" ht="14.15" customHeight="1">
       <c r="A58" s="6" t="s">
         <v>209</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="5" t="n">
+      <c r="C58" s="5">
         <v>54</v>
       </c>
-      <c r="D58" s="8" t="n">
+      <c r="D58" s="8">
         <v>129778199.5</v>
       </c>
       <c r="E58" s="9" t="s">
@@ -3008,18 +3269,18 @@
       <c r="G58" s="11"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:8" ht="14.15" customHeight="1">
       <c r="A59" s="6" t="s">
         <v>211</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="5" t="n">
+      <c r="C59" s="5">
         <v>55</v>
       </c>
-      <c r="D59" s="8" t="n">
-        <v>442490787.27</v>
+      <c r="D59" s="8">
+        <v>442490787.26999998</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>212</v>
@@ -3028,17 +3289,17 @@
       <c r="G59" s="11"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:8" ht="14.15" customHeight="1">
       <c r="A60" s="6" t="s">
         <v>213</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="5" t="n">
+      <c r="C60" s="5">
         <v>56</v>
       </c>
-      <c r="D60" s="8" t="n">
+      <c r="D60" s="8">
         <v>0</v>
       </c>
       <c r="E60" s="9" t="s">
@@ -3048,17 +3309,17 @@
       <c r="G60" s="11"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:8" ht="14.15" customHeight="1">
       <c r="A61" s="6" t="s">
         <v>214</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="5" t="n">
+      <c r="C61" s="5">
         <v>57</v>
       </c>
-      <c r="D61" s="8" t="n">
+      <c r="D61" s="8">
         <v>0</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -3068,17 +3329,17 @@
       <c r="G61" s="11"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:8" ht="14.15" customHeight="1">
       <c r="A62" s="6" t="s">
         <v>215</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="5" t="n">
+      <c r="C62" s="5">
         <v>58</v>
       </c>
-      <c r="D62" s="8" t="n">
+      <c r="D62" s="8">
         <v>0</v>
       </c>
       <c r="E62" s="9" t="s">
@@ -3088,17 +3349,17 @@
       <c r="G62" s="11"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:8" ht="14.15" customHeight="1">
       <c r="A63" s="6" t="s">
         <v>216</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="5" t="n">
+      <c r="C63" s="5">
         <v>59</v>
       </c>
-      <c r="D63" s="8" t="n">
+      <c r="D63" s="8">
         <v>2176252.5</v>
       </c>
       <c r="E63" s="9" t="s">
@@ -3108,17 +3369,17 @@
       <c r="G63" s="11"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:8" ht="14.15" customHeight="1">
       <c r="A64" s="6" t="s">
         <v>218</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="5" t="n">
+      <c r="C64" s="5">
         <v>60</v>
       </c>
-      <c r="D64" s="8" t="n">
+      <c r="D64" s="8">
         <v>0</v>
       </c>
       <c r="E64" s="9" t="s">
@@ -3128,17 +3389,17 @@
       <c r="G64" s="11"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:8" ht="14.15" customHeight="1">
       <c r="A65" s="6" t="s">
         <v>219</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="5" t="n">
+      <c r="C65" s="5">
         <v>61</v>
       </c>
-      <c r="D65" s="8" t="n">
+      <c r="D65" s="8">
         <v>466011.28</v>
       </c>
       <c r="E65" s="9" t="s">
@@ -3148,17 +3409,17 @@
       <c r="G65" s="11"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:8" ht="14.15" customHeight="1">
       <c r="A66" s="6" t="s">
         <v>220</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="5" t="n">
+      <c r="C66" s="5">
         <v>62</v>
       </c>
-      <c r="D66" s="8" t="n">
+      <c r="D66" s="8">
         <v>1048110.07</v>
       </c>
       <c r="E66" s="9" t="s">
@@ -3168,18 +3429,18 @@
       <c r="G66" s="11"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:8" ht="14.15" customHeight="1">
       <c r="A67" s="6" t="s">
         <v>222</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="5" t="n">
+      <c r="C67" s="5">
         <v>63</v>
       </c>
-      <c r="D67" s="8" t="n">
-        <v>4551386.48</v>
+      <c r="D67" s="8">
+        <v>4551386.4800000004</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>223</v>
@@ -3188,18 +3449,18 @@
       <c r="G67" s="11"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:8" ht="14.15" customHeight="1">
       <c r="A68" s="6" t="s">
         <v>224</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="5" t="n">
+      <c r="C68" s="5">
         <v>64</v>
       </c>
-      <c r="D68" s="8" t="n">
-        <v>10821703.04</v>
+      <c r="D68" s="8">
+        <v>10821703.039999999</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>225</v>
@@ -3208,14 +3469,14 @@
       <c r="G68" s="11"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:8" ht="14.15" customHeight="1">
       <c r="A69" s="6" t="s">
         <v>226</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="5" t="n">
+      <c r="C69" s="5">
         <v>65</v>
       </c>
       <c r="D69" s="8"/>
@@ -3224,18 +3485,18 @@
       <c r="G69" s="11"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:8" ht="14.15" customHeight="1">
       <c r="A70" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="5" t="n">
+      <c r="C70" s="5">
         <v>66</v>
       </c>
-      <c r="D70" s="8" t="n">
-        <v>16.0235730834654</v>
+      <c r="D70" s="8">
+        <v>16.023573083465401</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>228</v>
@@ -3248,17 +3509,17 @@
       </c>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:8" ht="14.15" customHeight="1">
       <c r="A71" s="6" t="s">
         <v>231</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="5" t="n">
+      <c r="C71" s="5">
         <v>67</v>
       </c>
-      <c r="D71" s="8" t="n">
+      <c r="D71" s="8">
         <v>26905445</v>
       </c>
       <c r="E71" s="9" t="s">
@@ -3272,18 +3533,18 @@
       </c>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:8" ht="14.15" customHeight="1">
       <c r="A72" s="6" t="s">
         <v>235</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="5" t="n">
+      <c r="C72" s="5">
         <v>68</v>
       </c>
-      <c r="D72" s="8" t="n">
-        <v>167911644.05</v>
+      <c r="D72" s="8">
+        <v>167911644.05000001</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>236</v>
@@ -3296,18 +3557,18 @@
       </c>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:8" ht="14.15" customHeight="1">
       <c r="A73" s="6" t="s">
         <v>239</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="5" t="n">
+      <c r="C73" s="5">
         <v>69</v>
       </c>
-      <c r="D73" s="8" t="n">
-        <v>59.8487056853977</v>
+      <c r="D73" s="8">
+        <v>59.848705685397697</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>240</v>
@@ -3320,17 +3581,17 @@
       </c>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:8" ht="14.15" customHeight="1">
       <c r="A74" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="5" t="n">
+      <c r="C74" s="5">
         <v>70</v>
       </c>
-      <c r="D74" s="8" t="n">
+      <c r="D74" s="8">
         <v>164189378</v>
       </c>
       <c r="E74" s="9" t="s">
@@ -3344,18 +3605,18 @@
       </c>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:8" ht="14.15" customHeight="1">
       <c r="A75" s="6" t="s">
         <v>247</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="5" t="n">
+      <c r="C75" s="5">
         <v>71</v>
       </c>
-      <c r="D75" s="8" t="n">
-        <v>274340733.22</v>
+      <c r="D75" s="8">
+        <v>274340733.22000003</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>248</v>
@@ -3368,17 +3629,17 @@
       </c>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:8" ht="14.15" customHeight="1">
       <c r="A76" s="6" t="s">
         <v>251</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C76" s="5" t="n">
+      <c r="C76" s="5">
         <v>72</v>
       </c>
-      <c r="D76" s="8" t="n">
+      <c r="D76" s="8">
         <v>88.81</v>
       </c>
       <c r="E76" s="9" t="s">
@@ -3392,17 +3653,17 @@
       </c>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:8" ht="14.15" customHeight="1">
       <c r="A77" s="6" t="s">
         <v>255</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C77" s="5" t="n">
+      <c r="C77" s="5">
         <v>73</v>
       </c>
-      <c r="D77" s="8" t="n">
+      <c r="D77" s="8">
         <v>192440180.38</v>
       </c>
       <c r="E77" s="9" t="s">
@@ -3416,18 +3677,18 @@
       </c>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:8" ht="14.15" customHeight="1">
       <c r="A78" s="6" t="s">
         <v>259</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="5" t="n">
+      <c r="C78" s="5">
         <v>74</v>
       </c>
-      <c r="D78" s="8" t="n">
-        <v>216696050.8</v>
+      <c r="D78" s="8">
+        <v>216696050.80000001</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>260</v>
@@ -3440,17 +3701,17 @@
       </c>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:8" ht="14.15" customHeight="1">
       <c r="A79" s="6" t="s">
         <v>263</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="5" t="n">
+      <c r="C79" s="5">
         <v>75</v>
       </c>
-      <c r="D79" s="8" t="n">
+      <c r="D79" s="8">
         <v>31.42</v>
       </c>
       <c r="E79" s="9" t="s">
@@ -3464,18 +3725,18 @@
       </c>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:8" ht="14.15" customHeight="1">
       <c r="A80" s="6" t="s">
         <v>267</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="5" t="n">
+      <c r="C80" s="5">
         <v>76</v>
       </c>
-      <c r="D80" s="8" t="n">
-        <v>138969301.95</v>
+      <c r="D80" s="8">
+        <v>138969301.94999999</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>268</v>
@@ -3488,18 +3749,18 @@
       </c>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:8" ht="14.15" customHeight="1">
       <c r="A81" s="6" t="s">
         <v>271</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="5" t="n">
+      <c r="C81" s="5">
         <v>77</v>
       </c>
-      <c r="D81" s="8" t="n">
-        <v>107038510.96</v>
+      <c r="D81" s="8">
+        <v>107038510.95999999</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>272</v>
@@ -3512,18 +3773,18 @@
       </c>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:8" ht="14.15" customHeight="1">
       <c r="A82" s="6" t="s">
         <v>273</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="5" t="n">
+      <c r="C82" s="5">
         <v>78</v>
       </c>
-      <c r="D82" s="8" t="n">
-        <v>70271781.22</v>
+      <c r="D82" s="8">
+        <v>70271781.219999999</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>115</v>
@@ -3536,18 +3797,18 @@
       </c>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:8" ht="14.15" customHeight="1">
       <c r="A83" s="6" t="s">
         <v>275</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="5" t="n">
+      <c r="C83" s="5">
         <v>79</v>
       </c>
-      <c r="D83" s="8" t="n">
-        <v>47258384.71</v>
+      <c r="D83" s="8">
+        <v>47258384.710000001</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>276</v>
@@ -3560,18 +3821,18 @@
       </c>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:8" ht="14.15" customHeight="1">
       <c r="A84" s="6" t="s">
         <v>279</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="5" t="n">
+      <c r="C84" s="5">
         <v>80</v>
       </c>
-      <c r="D84" s="8" t="n">
-        <v>70117810.43</v>
+      <c r="D84" s="8">
+        <v>70117810.430000007</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>280</v>
@@ -3584,18 +3845,18 @@
       </c>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:8" ht="14.15" customHeight="1">
       <c r="A85" s="6" t="s">
         <v>283</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="5" t="n">
-        <v>81</v>
-      </c>
-      <c r="D85" s="8" t="n">
-        <v>442252377.27</v>
+      <c r="C85" s="5">
+        <v>81</v>
+      </c>
+      <c r="D85" s="8">
+        <v>442252377.26999998</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>284</v>
@@ -3608,14 +3869,14 @@
       </c>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:8" ht="14.15" customHeight="1">
       <c r="A86" s="6" t="s">
         <v>287</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C86" s="5" t="n">
+      <c r="C86" s="5">
         <v>82</v>
       </c>
       <c r="D86" s="8"/>
@@ -3624,17 +3885,17 @@
       <c r="G86" s="11"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:8" ht="14.15" customHeight="1">
       <c r="A87" s="6" t="s">
         <v>288</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="5" t="n">
+      <c r="C87" s="5">
         <v>83</v>
       </c>
-      <c r="D87" s="8" t="n">
+      <c r="D87" s="8">
         <v>8.31</v>
       </c>
       <c r="E87" s="9" t="s">
@@ -3648,18 +3909,18 @@
       </c>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:8" ht="14.15" customHeight="1">
       <c r="A88" s="6" t="s">
         <v>292</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C88" s="5" t="n">
+      <c r="C88" s="5">
         <v>84</v>
       </c>
-      <c r="D88" s="8" t="n">
-        <v>167911644.05</v>
+      <c r="D88" s="8">
+        <v>167911644.05000001</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>293</v>
@@ -3672,17 +3933,17 @@
       </c>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:8" ht="14.15" customHeight="1">
       <c r="A89" s="6" t="s">
         <v>296</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="5" t="n">
+      <c r="C89" s="5">
         <v>85</v>
       </c>
-      <c r="D89" s="8" t="n">
+      <c r="D89" s="8">
         <v>3.09</v>
       </c>
       <c r="E89" s="9" t="s">
@@ -3696,18 +3957,18 @@
       </c>
       <c r="H89" s="10"/>
     </row>
-    <row r="90" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:8" ht="14.15" customHeight="1">
       <c r="A90" s="6" t="s">
         <v>300</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C90" s="5" t="n">
+      <c r="C90" s="5">
         <v>86</v>
       </c>
-      <c r="D90" s="8" t="n">
-        <v>274340733.22</v>
+      <c r="D90" s="8">
+        <v>274340733.22000003</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>301</v>
@@ -3720,18 +3981,18 @@
       </c>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:8" ht="14.15" customHeight="1">
       <c r="A91" s="6" t="s">
         <v>304</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C91" s="5" t="n">
+      <c r="C91" s="5">
         <v>87</v>
       </c>
-      <c r="D91" s="8" t="n">
-        <v>4.27</v>
+      <c r="D91" s="8">
+        <v>4.2699999999999996</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>305</v>
@@ -3744,18 +4005,18 @@
       </c>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:8" ht="14.15" customHeight="1">
       <c r="A92" s="6" t="s">
         <v>308</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="5" t="n">
+      <c r="C92" s="5">
         <v>88</v>
       </c>
-      <c r="D92" s="8" t="n">
-        <v>435626606.59</v>
+      <c r="D92" s="8">
+        <v>435626606.58999997</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>309</v>
@@ -3768,14 +4029,14 @@
       </c>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:8" ht="14.15" customHeight="1">
       <c r="A93" s="6" t="s">
         <v>312</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C93" s="5" t="n">
+      <c r="C93" s="5">
         <v>89</v>
       </c>
       <c r="D93" s="8"/>
@@ -3784,17 +4045,17 @@
       <c r="G93" s="11"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:8" ht="14.15" customHeight="1">
       <c r="A94" s="6" t="s">
         <v>313</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C94" s="5" t="n">
+      <c r="C94" s="5">
         <v>90</v>
       </c>
-      <c r="D94" s="8" t="n">
+      <c r="D94" s="8">
         <v>14.17</v>
       </c>
       <c r="E94" s="9" t="s">
@@ -3808,17 +4069,17 @@
       </c>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:8" ht="14.15" customHeight="1">
       <c r="A95" s="6" t="s">
         <v>317</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C95" s="5" t="n">
+      <c r="C95" s="5">
         <v>91</v>
       </c>
-      <c r="D95" s="8" t="n">
+      <c r="D95" s="8">
         <v>236.58</v>
       </c>
       <c r="E95" s="9" t="s">
@@ -3832,18 +4093,18 @@
       </c>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:8" ht="14.15" customHeight="1">
       <c r="A96" s="6" t="s">
         <v>321</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C96" s="5" t="n">
+      <c r="C96" s="5">
         <v>92</v>
       </c>
-      <c r="D96" s="8" t="n">
-        <v>167911644.05</v>
+      <c r="D96" s="8">
+        <v>167911644.05000001</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>293</v>
@@ -3856,17 +4117,17 @@
       </c>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:8" ht="14.15" customHeight="1">
       <c r="A97" s="6" t="s">
         <v>322</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C97" s="5" t="n">
+      <c r="C97" s="5">
         <v>93</v>
       </c>
-      <c r="D97" s="8" t="n">
+      <c r="D97" s="8">
         <v>709748</v>
       </c>
       <c r="E97" s="9" t="s">
@@ -3880,17 +4141,17 @@
       </c>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:8" ht="14.15" customHeight="1">
       <c r="A98" s="6" t="s">
         <v>327</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="5" t="n">
+      <c r="C98" s="5">
         <v>94</v>
       </c>
-      <c r="D98" s="8" t="n">
+      <c r="D98" s="8">
         <v>9.06</v>
       </c>
       <c r="E98" s="9" t="s">
@@ -3904,17 +4165,17 @@
       </c>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:8" ht="14.15" customHeight="1">
       <c r="A99" s="6" t="s">
         <v>331</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C99" s="5" t="n">
+      <c r="C99" s="5">
         <v>95</v>
       </c>
-      <c r="D99" s="8" t="n">
+      <c r="D99" s="8">
         <v>7397.49</v>
       </c>
       <c r="E99" s="9" t="s">
@@ -3928,18 +4189,18 @@
       </c>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:8" ht="14.15" customHeight="1">
       <c r="A100" s="6" t="s">
         <v>335</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C100" s="5" t="n">
+      <c r="C100" s="5">
         <v>96</v>
       </c>
-      <c r="D100" s="8" t="n">
-        <v>274340733.22</v>
+      <c r="D100" s="8">
+        <v>274340733.22000003</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>301</v>
@@ -3952,17 +4213,17 @@
       </c>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:8" ht="14.15" customHeight="1">
       <c r="A101" s="6" t="s">
         <v>336</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C101" s="5" t="n">
+      <c r="C101" s="5">
         <v>97</v>
       </c>
-      <c r="D101" s="8" t="n">
+      <c r="D101" s="8">
         <v>270200</v>
       </c>
       <c r="E101" s="9" t="s">
@@ -3976,17 +4237,17 @@
       </c>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:8" ht="14.15" customHeight="1">
       <c r="A102" s="6" t="s">
         <v>340</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C102" s="5" t="n">
+      <c r="C102" s="5">
         <v>98</v>
       </c>
-      <c r="D102" s="8" t="n">
+      <c r="D102" s="8">
         <v>272818</v>
       </c>
       <c r="E102" s="9" t="s">
@@ -4000,17 +4261,17 @@
       </c>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:8" ht="14.15" customHeight="1">
       <c r="A103" s="6" t="s">
         <v>343</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C103" s="5" t="n">
+      <c r="C103" s="5">
         <v>99</v>
       </c>
-      <c r="D103" s="8" t="n">
+      <c r="D103" s="8">
         <v>37445</v>
       </c>
       <c r="E103" s="9" t="s">
@@ -4024,14 +4285,14 @@
       </c>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:8" ht="14.15" customHeight="1">
       <c r="A104" s="6" t="s">
         <v>344</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C104" s="5" t="n">
+      <c r="C104" s="5">
         <v>100</v>
       </c>
       <c r="D104" s="8"/>
@@ -4040,17 +4301,17 @@
       <c r="G104" s="11"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:8" ht="14.15" customHeight="1">
       <c r="A105" s="6" t="s">
         <v>345</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C105" s="5" t="n">
+      <c r="C105" s="5">
         <v>101</v>
       </c>
-      <c r="D105" s="8" t="n">
+      <c r="D105" s="8">
         <v>15.66</v>
       </c>
       <c r="E105" s="9" t="s">
@@ -4064,18 +4325,18 @@
       </c>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:8" ht="14.15" customHeight="1">
       <c r="A106" s="6" t="s">
         <v>349</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C106" s="5" t="n">
+      <c r="C106" s="5">
         <v>102</v>
       </c>
-      <c r="D106" s="8" t="n">
-        <v>79.18</v>
+      <c r="D106" s="8">
+        <v>79.180000000000007</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>350</v>
@@ -4088,18 +4349,18 @@
       </c>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:8" ht="14.15" customHeight="1">
       <c r="A107" s="6" t="s">
         <v>353</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C107" s="5" t="n">
+      <c r="C107" s="5">
         <v>103</v>
       </c>
-      <c r="D107" s="8" t="n">
-        <v>56349262.11</v>
+      <c r="D107" s="8">
+        <v>56349262.109999999</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>354</v>
@@ -4112,17 +4373,17 @@
       </c>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:8" ht="14.15" customHeight="1">
       <c r="A108" s="6" t="s">
         <v>357</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C108" s="5" t="n">
+      <c r="C108" s="5">
         <v>104</v>
       </c>
-      <c r="D108" s="8" t="n">
+      <c r="D108" s="8">
         <v>154704</v>
       </c>
       <c r="E108" s="9" t="s">
@@ -4136,17 +4397,17 @@
       </c>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:8" ht="14.15" customHeight="1">
       <c r="A109" s="6" t="s">
         <v>358</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C109" s="5" t="n">
+      <c r="C109" s="5">
         <v>105</v>
       </c>
-      <c r="D109" s="8" t="n">
+      <c r="D109" s="8">
         <v>709748</v>
       </c>
       <c r="E109" s="9" t="s">
@@ -4160,17 +4421,17 @@
       </c>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:8" ht="14.15" customHeight="1">
       <c r="A110" s="6" t="s">
         <v>362</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C110" s="5" t="n">
+      <c r="C110" s="5">
         <v>106</v>
       </c>
-      <c r="D110" s="8" t="n">
+      <c r="D110" s="8">
         <v>0.64</v>
       </c>
       <c r="E110" s="9" t="s">
@@ -4184,17 +4445,17 @@
       </c>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:8" ht="14.15" customHeight="1">
       <c r="A111" s="6" t="s">
         <v>366</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C111" s="5" t="n">
+      <c r="C111" s="5">
         <v>107</v>
       </c>
-      <c r="D111" s="8" t="n">
+      <c r="D111" s="8">
         <v>1366.81</v>
       </c>
       <c r="E111" s="9" t="s">
@@ -4208,18 +4469,18 @@
       </c>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:8" ht="14.15" customHeight="1">
       <c r="A112" s="6" t="s">
         <v>370</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C112" s="5" t="n">
+      <c r="C112" s="5">
         <v>108</v>
       </c>
-      <c r="D112" s="8" t="n">
-        <v>50689248.85</v>
+      <c r="D112" s="8">
+        <v>50689248.850000001</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>371</v>
@@ -4232,17 +4493,17 @@
       </c>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:8" ht="14.15" customHeight="1">
       <c r="A113" s="6" t="s">
         <v>374</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C113" s="5" t="n">
+      <c r="C113" s="5">
         <v>109</v>
       </c>
-      <c r="D113" s="8" t="n">
+      <c r="D113" s="8">
         <v>160468</v>
       </c>
       <c r="E113" s="9" t="s">
@@ -4256,17 +4517,17 @@
       </c>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:8" ht="14.15" customHeight="1">
       <c r="A114" s="6" t="s">
         <v>375</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C114" s="5" t="n">
+      <c r="C114" s="5">
         <v>110</v>
       </c>
-      <c r="D114" s="8" t="n">
+      <c r="D114" s="8">
         <v>270200</v>
       </c>
       <c r="E114" s="9" t="s">
@@ -4280,17 +4541,17 @@
       </c>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:8" ht="14.15" customHeight="1">
       <c r="A115" s="6" t="s">
         <v>379</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C115" s="5" t="n">
+      <c r="C115" s="5">
         <v>111</v>
       </c>
-      <c r="D115" s="8" t="n">
+      <c r="D115" s="8">
         <v>272818</v>
       </c>
       <c r="E115" s="9" t="s">
@@ -4304,17 +4565,17 @@
       </c>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:8" ht="14.15" customHeight="1">
       <c r="A116" s="6" t="s">
         <v>380</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C116" s="5" t="n">
+      <c r="C116" s="5">
         <v>112</v>
       </c>
-      <c r="D116" s="8" t="n">
+      <c r="D116" s="8">
         <v>37445</v>
       </c>
       <c r="E116" s="9" t="s">
@@ -4328,14 +4589,14 @@
       </c>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:8" ht="14.15" customHeight="1">
       <c r="A117" s="6" t="s">
         <v>381</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C117" s="5" t="n">
+      <c r="C117" s="5">
         <v>113</v>
       </c>
       <c r="D117" s="4" t="s">
@@ -4352,17 +4613,17 @@
       </c>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:8" ht="14.15" customHeight="1">
       <c r="A118" s="6" t="s">
         <v>386</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C118" s="5" t="n">
+      <c r="C118" s="5">
         <v>114</v>
       </c>
-      <c r="D118" s="8" t="n">
+      <c r="D118" s="8">
         <v>276</v>
       </c>
       <c r="E118" s="9" t="s">
@@ -4376,17 +4637,17 @@
       </c>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:8" ht="14.15" customHeight="1">
       <c r="A119" s="6" t="s">
         <v>390</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C119" s="5" t="n">
+      <c r="C119" s="5">
         <v>115</v>
       </c>
-      <c r="D119" s="8" t="n">
+      <c r="D119" s="8">
         <v>428</v>
       </c>
       <c r="E119" s="9" t="s">
@@ -4400,14 +4661,14 @@
       </c>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:8" ht="14.15" customHeight="1">
       <c r="A120" s="6" t="s">
         <v>394</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C120" s="5" t="n">
+      <c r="C120" s="5">
         <v>116</v>
       </c>
       <c r="D120" s="8"/>
@@ -4416,17 +4677,17 @@
       <c r="G120" s="11"/>
       <c r="H120" s="10"/>
     </row>
-    <row r="121" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:8" ht="14.15" customHeight="1">
       <c r="A121" s="6" t="s">
         <v>395</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C121" s="5" t="n">
+      <c r="C121" s="5">
         <v>117</v>
       </c>
-      <c r="D121" s="8" t="n">
+      <c r="D121" s="8">
         <v>3.6</v>
       </c>
       <c r="E121" s="9" t="s">
@@ -4440,17 +4701,17 @@
       </c>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:8" ht="14.15" customHeight="1">
       <c r="A122" s="6" t="s">
         <v>398</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C122" s="5" t="n">
+      <c r="C122" s="5">
         <v>118</v>
       </c>
-      <c r="D122" s="8" t="n">
+      <c r="D122" s="8">
         <v>10</v>
       </c>
       <c r="E122" s="9" t="s">
@@ -4464,17 +4725,17 @@
       </c>
       <c r="H122" s="10"/>
     </row>
-    <row r="123" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:8" ht="14.15" customHeight="1">
       <c r="A123" s="6" t="s">
         <v>400</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C123" s="5" t="n">
+      <c r="C123" s="5">
         <v>119</v>
       </c>
-      <c r="D123" s="8" t="n">
+      <c r="D123" s="8">
         <v>10</v>
       </c>
       <c r="E123" s="9" t="s">
@@ -4488,17 +4749,17 @@
       </c>
       <c r="H123" s="10"/>
     </row>
-    <row r="124" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:8" ht="14.15" customHeight="1">
       <c r="A124" s="6" t="s">
         <v>404</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C124" s="5" t="n">
+      <c r="C124" s="5">
         <v>120</v>
       </c>
-      <c r="D124" s="8" t="n">
+      <c r="D124" s="8">
         <v>28</v>
       </c>
       <c r="E124" s="9" t="s">
@@ -4512,17 +4773,17 @@
       </c>
       <c r="H124" s="10"/>
     </row>
-    <row r="125" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:8" ht="14.15" customHeight="1">
       <c r="A125" s="6" t="s">
         <v>407</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C125" s="5" t="n">
+      <c r="C125" s="5">
         <v>121</v>
       </c>
-      <c r="D125" s="8" t="n">
+      <c r="D125" s="8">
         <v>2.5</v>
       </c>
       <c r="E125" s="9" t="s">
@@ -4536,17 +4797,17 @@
       </c>
       <c r="H125" s="10"/>
     </row>
-    <row r="126" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:8" ht="14.15" customHeight="1">
       <c r="A126" s="6" t="s">
         <v>411</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="5" t="n">
+      <c r="C126" s="5">
         <v>122</v>
       </c>
-      <c r="D126" s="8" t="n">
+      <c r="D126" s="8">
         <v>7</v>
       </c>
       <c r="E126" s="9" t="s">
@@ -4560,18 +4821,18 @@
       </c>
       <c r="H126" s="10"/>
     </row>
-    <row r="127" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:8" ht="14.15" customHeight="1">
       <c r="A127" s="6" t="s">
         <v>414</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C127" s="5" t="n">
+      <c r="C127" s="5">
         <v>123</v>
       </c>
-      <c r="D127" s="8" t="n">
-        <v>1.1</v>
+      <c r="D127" s="8">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>415</v>
@@ -4584,17 +4845,17 @@
       </c>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:8" ht="14.15" customHeight="1">
       <c r="A128" s="6" t="s">
         <v>418</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C128" s="5" t="n">
+      <c r="C128" s="5">
         <v>124</v>
       </c>
-      <c r="D128" s="8" t="n">
+      <c r="D128" s="8">
         <v>3</v>
       </c>
       <c r="E128" s="9" t="s">
@@ -4608,17 +4869,17 @@
       </c>
       <c r="H128" s="10"/>
     </row>
-    <row r="129" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:8" ht="14.15" customHeight="1">
       <c r="A129" s="6" t="s">
         <v>419</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C129" s="5" t="n">
+      <c r="C129" s="5">
         <v>125</v>
       </c>
-      <c r="D129" s="8" t="n">
+      <c r="D129" s="8">
         <v>3.6</v>
       </c>
       <c r="E129" s="9" t="s">
@@ -4632,17 +4893,17 @@
       </c>
       <c r="H129" s="10"/>
     </row>
-    <row r="130" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:8" ht="14.15" customHeight="1">
       <c r="A130" s="6" t="s">
         <v>422</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C130" s="5" t="n">
+      <c r="C130" s="5">
         <v>126</v>
       </c>
-      <c r="D130" s="8" t="n">
+      <c r="D130" s="8">
         <v>10</v>
       </c>
       <c r="E130" s="9" t="s">
@@ -4656,17 +4917,17 @@
       </c>
       <c r="H130" s="10"/>
     </row>
-    <row r="131" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:8" ht="14.15" customHeight="1">
       <c r="A131" s="6" t="s">
         <v>424</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C131" s="5" t="n">
+      <c r="C131" s="5">
         <v>127</v>
       </c>
-      <c r="D131" s="8" t="n">
+      <c r="D131" s="8">
         <v>265</v>
       </c>
       <c r="E131" s="9" t="s">
@@ -4680,17 +4941,17 @@
       </c>
       <c r="H131" s="10"/>
     </row>
-    <row r="132" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:8" ht="14.15" customHeight="1">
       <c r="A132" s="6" t="s">
         <v>428</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C132" s="5" t="n">
+      <c r="C132" s="5">
         <v>128</v>
       </c>
-      <c r="D132" s="8" t="n">
+      <c r="D132" s="8">
         <v>0.22</v>
       </c>
       <c r="E132" s="9" t="s">
@@ -4704,17 +4965,17 @@
       </c>
       <c r="H132" s="10"/>
     </row>
-    <row r="133" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:8" ht="14.15" customHeight="1">
       <c r="A133" s="6" t="s">
         <v>432</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C133" s="5" t="n">
+      <c r="C133" s="5">
         <v>129</v>
       </c>
-      <c r="D133" s="8" t="n">
+      <c r="D133" s="8">
         <v>1008831.88</v>
       </c>
       <c r="E133" s="9" t="s">
@@ -4728,17 +4989,17 @@
       </c>
       <c r="H133" s="10"/>
     </row>
-    <row r="134" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:8" ht="14.15" customHeight="1">
       <c r="A134" s="6" t="s">
         <v>436</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C134" s="5" t="n">
+      <c r="C134" s="5">
         <v>130</v>
       </c>
-      <c r="D134" s="8" t="n">
+      <c r="D134" s="8">
         <v>0</v>
       </c>
       <c r="E134" s="9" t="s">
@@ -4752,17 +5013,17 @@
       </c>
       <c r="H134" s="10"/>
     </row>
-    <row r="135" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:8" ht="14.15" customHeight="1">
       <c r="A135" s="6" t="s">
         <v>437</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C135" s="5" t="n">
+      <c r="C135" s="5">
         <v>131</v>
       </c>
-      <c r="D135" s="8" t="n">
+      <c r="D135" s="8">
         <v>0</v>
       </c>
       <c r="E135" s="9" t="s">
@@ -4776,17 +5037,17 @@
       </c>
       <c r="H135" s="10"/>
     </row>
-    <row r="136" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:8" ht="14.15" customHeight="1">
       <c r="A136" s="6" t="s">
         <v>438</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C136" s="5" t="n">
+      <c r="C136" s="5">
         <v>132</v>
       </c>
-      <c r="D136" s="8" t="n">
+      <c r="D136" s="8">
         <v>1008831.88</v>
       </c>
       <c r="E136" s="9" t="s">
@@ -4800,18 +5061,18 @@
       </c>
       <c r="H136" s="10"/>
     </row>
-    <row r="137" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:8" ht="14.15" customHeight="1">
       <c r="A137" s="6" t="s">
         <v>442</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C137" s="5" t="n">
+      <c r="C137" s="5">
         <v>133</v>
       </c>
-      <c r="D137" s="8" t="n">
-        <v>449198351.42</v>
+      <c r="D137" s="8">
+        <v>449198351.42000002</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>192</v>
@@ -4824,14 +5085,14 @@
       </c>
       <c r="H137" s="10"/>
     </row>
-    <row r="138" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:8" ht="14.15" customHeight="1">
       <c r="A138" s="6" t="s">
         <v>443</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C138" s="5" t="n">
+      <c r="C138" s="5">
         <v>134</v>
       </c>
       <c r="D138" s="8"/>
@@ -4840,14 +5101,14 @@
       <c r="G138" s="11"/>
       <c r="H138" s="10"/>
     </row>
-    <row r="139" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:8" ht="14.15" customHeight="1">
       <c r="A139" s="6" t="s">
         <v>444</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C139" s="5" t="n">
+      <c r="C139" s="5">
         <v>135</v>
       </c>
       <c r="D139" s="8"/>
@@ -4856,212 +5117,212 @@
       <c r="G139" s="11"/>
       <c r="H139" s="10"/>
     </row>
-    <row r="140" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:8" ht="14.15" customHeight="1">
       <c r="A140" s="6" t="s">
         <v>445</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C140" s="5" t="n">
+      <c r="C140" s="5">
         <v>136</v>
       </c>
       <c r="D140" s="8"/>
-      <c r="E140" s="11" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="F140" s="11" t="n">
+      <c r="E140" s="11">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="F140" s="11">
         <v>10.24</v>
       </c>
-      <c r="G140" s="11" t="n">
+      <c r="G140" s="11">
         <v>10.65</v>
       </c>
       <c r="H140" s="10"/>
     </row>
-    <row r="141" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:8" ht="14.15" customHeight="1">
       <c r="A141" s="6" t="s">
         <v>446</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C141" s="5" t="n">
+      <c r="C141" s="5">
         <v>137</v>
       </c>
       <c r="D141" s="8"/>
-      <c r="E141" s="11" t="n">
+      <c r="E141" s="11">
         <v>3341</v>
       </c>
-      <c r="F141" s="11" t="n">
+      <c r="F141" s="11">
         <v>2859</v>
       </c>
-      <c r="G141" s="11" t="n">
+      <c r="G141" s="11">
         <v>2789</v>
       </c>
       <c r="H141" s="10"/>
     </row>
-    <row r="142" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:8" ht="14.15" customHeight="1">
       <c r="A142" s="6" t="s">
         <v>447</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C142" s="5" t="n">
+      <c r="C142" s="5">
         <v>138</v>
       </c>
       <c r="D142" s="8"/>
-      <c r="E142" s="11" t="n">
+      <c r="E142" s="11">
         <v>333</v>
       </c>
-      <c r="F142" s="11" t="n">
+      <c r="F142" s="11">
         <v>279</v>
       </c>
-      <c r="G142" s="11" t="n">
+      <c r="G142" s="11">
         <v>262</v>
       </c>
       <c r="H142" s="10"/>
     </row>
-    <row r="143" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:8" ht="14.15" customHeight="1">
       <c r="A143" s="6" t="s">
         <v>448</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C143" s="5" t="n">
+      <c r="C143" s="5">
         <v>139</v>
       </c>
       <c r="D143" s="8"/>
-      <c r="E143" s="11" t="n">
+      <c r="E143" s="11">
         <v>25582.18</v>
       </c>
-      <c r="F143" s="11" t="n">
+      <c r="F143" s="11">
         <v>21637.89</v>
       </c>
-      <c r="G143" s="11" t="n">
+      <c r="G143" s="11">
         <v>14336.38</v>
       </c>
       <c r="H143" s="10"/>
     </row>
-    <row r="144" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:8" ht="14.15" customHeight="1">
       <c r="A144" s="6" t="s">
         <v>449</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C144" s="5" t="n">
+      <c r="C144" s="5">
         <v>140</v>
       </c>
       <c r="D144" s="8"/>
-      <c r="E144" s="11" t="n">
-        <v>8518865.94</v>
-      </c>
-      <c r="F144" s="11" t="n">
-        <v>6036972.47</v>
-      </c>
-      <c r="G144" s="11" t="n">
+      <c r="E144" s="11">
+        <v>8518865.9399999995</v>
+      </c>
+      <c r="F144" s="11">
+        <v>6036972.4699999997</v>
+      </c>
+      <c r="G144" s="11">
         <v>3756130.98</v>
       </c>
       <c r="H144" s="10"/>
     </row>
-    <row r="145" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:8" ht="14.15" customHeight="1">
       <c r="A145" s="6" t="s">
         <v>450</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C145" s="5" t="n">
+      <c r="C145" s="5">
         <v>141</v>
       </c>
       <c r="D145" s="8"/>
-      <c r="E145" s="11" t="n">
+      <c r="E145" s="11">
         <v>333</v>
       </c>
-      <c r="F145" s="11" t="n">
+      <c r="F145" s="11">
         <v>279</v>
       </c>
-      <c r="G145" s="11" t="n">
+      <c r="G145" s="11">
         <v>262</v>
       </c>
       <c r="H145" s="10"/>
     </row>
-    <row r="146" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:8" ht="14.15" customHeight="1">
       <c r="A146" s="6" t="s">
         <v>451</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C146" s="5" t="n">
+      <c r="C146" s="5">
         <v>142</v>
       </c>
       <c r="D146" s="8"/>
-      <c r="E146" s="11" t="n">
+      <c r="E146" s="11">
         <v>3.6</v>
       </c>
-      <c r="F146" s="11" t="n">
+      <c r="F146" s="11">
         <v>3.32</v>
       </c>
-      <c r="G146" s="11" t="n">
+      <c r="G146" s="11">
         <v>3.82</v>
       </c>
       <c r="H146" s="10"/>
     </row>
-    <row r="147" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:8" ht="14.15" customHeight="1">
       <c r="A147" s="6" t="s">
         <v>452</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C147" s="5" t="n">
+      <c r="C147" s="5">
         <v>143</v>
       </c>
       <c r="D147" s="8"/>
-      <c r="E147" s="11" t="n">
+      <c r="E147" s="11">
         <v>12</v>
       </c>
-      <c r="F147" s="11" t="n">
+      <c r="F147" s="11">
         <v>9</v>
       </c>
-      <c r="G147" s="11" t="n">
+      <c r="G147" s="11">
         <v>10</v>
       </c>
       <c r="H147" s="10"/>
     </row>
-    <row r="148" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:8" ht="14.15" customHeight="1">
       <c r="A148" s="6" t="s">
         <v>453</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C148" s="5" t="n">
+      <c r="C148" s="5">
         <v>144</v>
       </c>
       <c r="D148" s="8"/>
-      <c r="E148" s="11" t="n">
+      <c r="E148" s="11">
         <v>333</v>
       </c>
-      <c r="F148" s="11" t="n">
+      <c r="F148" s="11">
         <v>279</v>
       </c>
-      <c r="G148" s="11" t="n">
+      <c r="G148" s="11">
         <v>262</v>
       </c>
       <c r="H148" s="10"/>
     </row>
-    <row r="149" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:8" ht="14.15" customHeight="1">
       <c r="A149" s="6" t="s">
         <v>454</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C149" s="5" t="n">
+      <c r="C149" s="5">
         <v>145</v>
       </c>
       <c r="D149" s="8"/>
@@ -5070,14 +5331,14 @@
       <c r="G149" s="11"/>
       <c r="H149" s="10"/>
     </row>
-    <row r="150" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:8" ht="14.15" customHeight="1">
       <c r="A150" s="6" t="s">
         <v>455</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C150" s="5" t="n">
+      <c r="C150" s="5">
         <v>146</v>
       </c>
       <c r="D150" s="8"/>
@@ -5086,14 +5347,14 @@
       <c r="G150" s="11"/>
       <c r="H150" s="10"/>
     </row>
-    <row r="151" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:8" ht="14.15" customHeight="1">
       <c r="A151" s="6" t="s">
         <v>456</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C151" s="5" t="n">
+      <c r="C151" s="5">
         <v>147</v>
       </c>
       <c r="D151" s="8"/>
@@ -5102,14 +5363,14 @@
       <c r="G151" s="11"/>
       <c r="H151" s="10"/>
     </row>
-    <row r="152" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:8" ht="14.15" customHeight="1">
       <c r="A152" s="6" t="s">
         <v>457</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C152" s="5" t="n">
+      <c r="C152" s="5">
         <v>148</v>
       </c>
       <c r="D152" s="8"/>
@@ -5118,14 +5379,14 @@
       <c r="G152" s="11"/>
       <c r="H152" s="10"/>
     </row>
-    <row r="153" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:8" ht="14.15" customHeight="1">
       <c r="A153" s="6" t="s">
         <v>458</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C153" s="5" t="n">
+      <c r="C153" s="5">
         <v>149</v>
       </c>
       <c r="D153" s="8"/>
@@ -5134,17 +5395,17 @@
       <c r="G153" s="11"/>
       <c r="H153" s="10"/>
     </row>
-    <row r="154" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:8" ht="14.15" customHeight="1">
       <c r="A154" s="6" t="s">
         <v>459</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="C154" s="5" t="n">
+      <c r="C154" s="5">
         <v>150</v>
       </c>
-      <c r="D154" s="8" t="n">
+      <c r="D154" s="8">
         <v>700</v>
       </c>
       <c r="E154" s="9" t="s">
@@ -5158,17 +5419,17 @@
       </c>
       <c r="H154" s="10"/>
     </row>
-    <row r="155" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:8" ht="14.15" customHeight="1">
       <c r="A155" s="6" t="s">
         <v>462</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="C155" s="5" t="n">
+      <c r="C155" s="5">
         <v>151</v>
       </c>
-      <c r="D155" s="8" t="n">
+      <c r="D155" s="8">
         <v>835</v>
       </c>
       <c r="E155" s="9" t="s">
@@ -5182,41 +5443,41 @@
       </c>
       <c r="H155" s="10"/>
     </row>
-    <row r="156" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:8" ht="14.15" customHeight="1">
       <c r="A156" s="6" t="s">
         <v>464</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="C156" s="5" t="n">
+      <c r="C156" s="5">
         <v>152</v>
       </c>
-      <c r="D156" s="8" t="n">
+      <c r="D156" s="8">
         <v>7</v>
       </c>
-      <c r="E156" s="11" t="n">
+      <c r="E156" s="11">
         <v>7</v>
       </c>
-      <c r="F156" s="11" t="n">
+      <c r="F156" s="11">
         <v>7</v>
       </c>
-      <c r="G156" s="11" t="n">
+      <c r="G156" s="11">
         <v>7</v>
       </c>
       <c r="H156" s="10"/>
     </row>
-    <row r="157" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:8" ht="14.15" customHeight="1">
       <c r="A157" s="6" t="s">
         <v>465</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="C157" s="5" t="n">
+      <c r="C157" s="5">
         <v>153</v>
       </c>
-      <c r="D157" s="8" t="n">
+      <c r="D157" s="8">
         <v>25</v>
       </c>
       <c r="E157" s="9" t="s">
@@ -5230,17 +5491,17 @@
       </c>
       <c r="H157" s="10"/>
     </row>
-    <row r="158" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:8" ht="14.15" customHeight="1">
       <c r="A158" s="6" t="s">
         <v>466</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C158" s="5" t="n">
+      <c r="C158" s="5">
         <v>154</v>
       </c>
-      <c r="D158" s="8" t="n">
+      <c r="D158" s="8">
         <v>359</v>
       </c>
       <c r="E158" s="9" t="s">
@@ -5254,17 +5515,17 @@
       </c>
       <c r="H158" s="10"/>
     </row>
-    <row r="159" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:8" ht="14.15" customHeight="1">
       <c r="A159" s="6" t="s">
         <v>470</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C159" s="5" t="n">
+      <c r="C159" s="5">
         <v>155</v>
       </c>
-      <c r="D159" s="8" t="n">
+      <c r="D159" s="8">
         <v>968</v>
       </c>
       <c r="E159" s="9" t="s">
@@ -5278,17 +5539,17 @@
       </c>
       <c r="H159" s="10"/>
     </row>
-    <row r="160" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:8" ht="14.15" customHeight="1">
       <c r="A160" s="6" t="s">
         <v>474</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C160" s="5" t="n">
+      <c r="C160" s="5">
         <v>156</v>
       </c>
-      <c r="D160" s="8" t="n">
+      <c r="D160" s="8">
         <v>36</v>
       </c>
       <c r="E160" s="9" t="s">
@@ -5302,17 +5563,17 @@
       </c>
       <c r="H160" s="10"/>
     </row>
-    <row r="161" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:8" ht="14.15" customHeight="1">
       <c r="A161" s="6" t="s">
         <v>478</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C161" s="5" t="n">
+      <c r="C161" s="5">
         <v>157</v>
       </c>
-      <c r="D161" s="8" t="n">
+      <c r="D161" s="8">
         <v>9</v>
       </c>
       <c r="E161" s="9" t="s">
@@ -5326,20 +5587,20 @@
       </c>
       <c r="H161" s="10"/>
     </row>
-    <row r="162" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:8" ht="16" customHeight="1">
       <c r="A162" s="13"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
-      <c r="D162" s="14" t="n">
+      <c r="D162" s="14">
         <v>2020</v>
       </c>
-      <c r="E162" s="14" t="n">
+      <c r="E162" s="14">
         <v>2019</v>
       </c>
-      <c r="F162" s="14" t="n">
+      <c r="F162" s="14">
         <v>2018</v>
       </c>
-      <c r="G162" s="14" t="n">
+      <c r="G162" s="14">
         <v>2017</v>
       </c>
       <c r="H162" s="13"/>
@@ -5349,17 +5610,29 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D3 D5:D162 E162:G162">
-    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.751388888888889" bottom="0.751388888888889" header="0.511805555555555" footer="0.298611111111111"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
+  <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75138888888888899" bottom="0.75138888888888899" header="0.51180555555555496" footer="0.29861111111111099"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddFooter>&amp;C第 &amp;P 页</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248762FB-980F-4BB3-8463-B2B73B605C08}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>